--- a/biology/Médecine/Tiotropium/Tiotropium.xlsx
+++ b/biology/Médecine/Tiotropium/Tiotropium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le tiotropium est un médicament de type anticholinergique, de longue durée d'action, utilisé en inhalation pour traiter les bronchopneumopathies chroniques obstructives (BPCO) et l'asthme sévère.
@@ -512,10 +524,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est plus efficace qu'un bêta-2-mimétique en inhalation pour prévenir les exacerbations des BPCO[3]. Il permet l'amélioration des paramètres de la fonction respiratoire et de la qualité de vie[4] même si la tolérance à l'effort n'est pas objectivement modifiée[5].
-Il existe en poudre à inhaler ou en spray liquide et ces deux formes sont d'efficacité comparable[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est plus efficace qu'un bêta-2-mimétique en inhalation pour prévenir les exacerbations des BPCO. Il permet l'amélioration des paramètres de la fonction respiratoire et de la qualité de vie même si la tolérance à l'effort n'est pas objectivement modifiée.
+Il existe en poudre à inhaler ou en spray liquide et ces deux formes sont d'efficacité comparable.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été soupçonné d'augmenter la mortalité[4],[7]. D'autres analyses mettent essentiellement en cause la forme en spray liquide[8],[9], possiblement par augmentation du risque de survenue de maladies cardio-vasculaires ou de troubles du rythme cardiaque[10]. Cette surmortalité n'a cependant pas été retrouvée dans une étude de vaste ampleur[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été soupçonné d'augmenter la mortalité,. D'autres analyses mettent essentiellement en cause la forme en spray liquide possiblement par augmentation du risque de survenue de maladies cardio-vasculaires ou de troubles du rythme cardiaque. Cette surmortalité n'a cependant pas été retrouvée dans une étude de vaste ampleur.
 </t>
         </is>
       </c>
